--- a/Base-宽表/gabase库数据表说明.xlsx
+++ b/Base-宽表/gabase库数据表说明.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="14805"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="158">
   <si>
     <t>renmian</t>
   </si>
@@ -76,15 +76,9 @@
     <t>b_base_order_gross_profit</t>
   </si>
   <si>
-    <t>b_user_profile_2</t>
-  </si>
-  <si>
     <t>b_user_profile</t>
   </si>
   <si>
-    <t>b_member_profile_2</t>
-  </si>
-  <si>
     <t>b_member_profile</t>
   </si>
   <si>
@@ -103,12 +97,6 @@
     <t>b_customer_idcard</t>
   </si>
   <si>
-    <t>b_customer_real_score_sub</t>
-  </si>
-  <si>
-    <t>b_customer_real_score_add</t>
-  </si>
-  <si>
     <t>b_inventory_history</t>
   </si>
   <si>
@@ -190,311 +178,397 @@
     <t>v_customer_conclusion</t>
   </si>
   <si>
+    <t>v_customer_eshop_count</t>
+  </si>
+  <si>
+    <t>SELECT tor.customer_id, count(DISTINCT tor.eshop_id) eshop_count FROM gemini.t_order tor INNER JOIN gemini.t_eshop te ON (tor.eshop_id = te.id) LEFT OUTER JOIN gemini.t_store ts ON (ts.id = tor.store_id) LEFT OUTER JOIN gemini.t_department_channel tdc ON (te.channel_id = tdc.id) WHERE tor.sign_time &lt; concat(from_unixtime(unix_timestamp(now()), 'yyyy-MM-dd'), ' 00:00:00') AND NOT te.name LIKE '%测试%' AND te.white != 'QA' AND sign_time IS NOT NULL GROUP BY tor.customer_id</t>
+  </si>
+  <si>
+    <t>v_customer_channel_count</t>
+  </si>
+  <si>
+    <t>SELECT tor.customer_id, count(DISTINCT tdc.id) channel_count FROM gemini.t_order tor INNER JOIN gemini.t_eshop te ON (tor.eshop_id = te.id) LEFT OUTER JOIN gemini.t_store ts ON (ts.id = tor.store_id) LEFT OUTER JOIN gemini.t_department_channel tdc ON (te.channel_id = tdc.id) WHERE tor.sign_time &lt; concat(from_unixtime(unix_timestamp(now()), 'yyyy-MM-dd'), ' 00:00:00') AND NOT te.name LIKE '%测试%' AND te.white != 'QA' AND sign_time IS NOT NULL GROUP BY tor.customer_id</t>
+  </si>
+  <si>
+    <t>v_yanglc_user</t>
+  </si>
+  <si>
+    <t>SELECT ylu.id userid, ylu.name username, ylu.tel userphone, ylu.IDcard usercard, ylu.create_time createtime, ylu.store_id storeid, ylc.city_code citycode, ylc.name storename, ylc.province_code provincecode FROM gabase.c_customer ylu, gabase.c_store ylc WHERE ylu.IDcard NOT IN (SELECT IDcard FROM gabase.c_customer WHERE substring(IDcard, 7, 2) &gt; '18' AND substring(IDcard, 7, 2) &lt; '21' GROUP BY IDcard HAVING count(IDcard) &gt; 1) AND ylu.tel NOT IN (SELECT tel FROM gabase.c_customer WHERE substring(IDcard, 7, 2) &gt; '18' AND substring(IDcard, 7, 2) &lt; '21' GROUP BY tel HAVING count(tel) &gt; 1) AND substring(ylu.IDcard, 7, 2) &gt; '18' AND substring(ylu.IDcard, 7, 2) &lt; '21' AND length(ylu.tel) &lt; 30 AND ylu.store_id = ylc.id</t>
+  </si>
+  <si>
+    <t>v_customer_city_count</t>
+  </si>
+  <si>
+    <t>SELECT tor.customer_id, count(DISTINCT ts.city_code) city_count FROM gemini.t_order tor INNER JOIN gemini.t_eshop te ON (tor.eshop_id = te.id) LEFT OUTER JOIN gemini.t_store ts ON (ts.id = tor.store_id) LEFT OUTER JOIN gemini.t_department_channel tdc ON (te.channel_id = tdc.id) WHERE tor.sign_time &lt; concat(from_unixtime(unix_timestamp(now()), 'yyyy-MM-dd'), ' 00:00:00') AND NOT te.name LIKE '%测试%' AND te.white != 'QA' AND sign_time IS NOT NULL GROUP BY tor.customer_id</t>
+  </si>
+  <si>
+    <t>v_customer_mac</t>
+  </si>
+  <si>
+    <t>SELECT customer_id, mac_address FROM gabdp_log.t_log WHERE mac_address IS NOT NULL AND mac_address != 'null' AND char_length(mac_address) = 17 AND customer_id IS NOT NULL AND customer_id != 'null' GROUP BY customer_id, mac_address</t>
+  </si>
+  <si>
+    <t>v_member_consumption</t>
+  </si>
+  <si>
+    <t>所属用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_user_basic_consume_info_partition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据表，从gabdp导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户最常消费的城市（下单成功）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社员表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_customer_associator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户与身份证idcard对应关系表（来源：社员表，员工线上/线下表，养老餐）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户标签结果表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步于养老餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用评分（同步于gabdp数据库）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流失用户（同步于gabdp数据库）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级标签分类（同步于gabdp数据库）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_createdate_col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均搜索间隔(天)</t>
+  </si>
+  <si>
+    <t>s_cum_sea_channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各频道搜索次数</t>
+  </si>
+  <si>
+    <t>s_cum_sea_fw_col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务类_搜索次数</t>
+  </si>
+  <si>
+    <t>s_cum_sea_sp_col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类_搜索次数</t>
+  </si>
+  <si>
+    <t>s_freq_search_channel_col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最常搜索的频道</t>
+  </si>
+  <si>
+    <t>s_freq_search_hour_col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最常搜索时段</t>
+  </si>
+  <si>
+    <t>s_freq_search_wday_col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最常在星期几搜索</t>
+  </si>
+  <si>
+    <t>s_freq_search_word_col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最常搜索的关键词</t>
+  </si>
+  <si>
+    <t>s_search_times_col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索次数</t>
+  </si>
+  <si>
+    <t>s_user_360ds_order_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实用户评分_近360天的消费</t>
+  </si>
+  <si>
+    <t>s_user_90ds_order_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近90天下单次数、平均下单间隔、(订单/平均订单/最高单笔订单)金额、下单(频道/E店/门店/sku)数量</t>
+  </si>
+  <si>
+    <t>s_user_basic_consume_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签结果数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签结果数据分区表！！！作废，被b_user_tag替代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_user_basic_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户基础信息</t>
+  </si>
+  <si>
+    <t>s_user_coupon_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(累计/月均)优惠券使用次数</t>
+  </si>
+  <si>
+    <t>s_user_each_channel_90ds_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各频道最近90天订单(数量/金额)</t>
+  </si>
+  <si>
+    <t>s_user_each_channel_sum_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各频道(累计/月均)订单(数量/金额)</t>
+  </si>
+  <si>
+    <t>s_user_first_last_order_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首末单距今时长、(累计/月均)[下单次数/下单金额/下单(频道/E店/门店/sku)数量]、累计(平均下单间隔/平均订单金额/最高单笔订单金额)</t>
+  </si>
+  <si>
+    <t>s_user_goods_90ds_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类最近90天订单(数量/金额)</t>
+  </si>
+  <si>
+    <t>s_user_goods_sum_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类(累计/月均)订单(数量/金额)</t>
+  </si>
+  <si>
+    <t>s_user_groupon_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(累计/月均)团购次数</t>
+  </si>
+  <si>
+    <t>s_user_serve_90ds_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务类最近90天订单(数量/金额)</t>
+  </si>
+  <si>
+    <t>s_user_serve_sum_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务类(累计/月均)订单(数量/金额)</t>
+  </si>
+  <si>
+    <t>t_customer_tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户模型标签表（周数据）</t>
+  </si>
+  <si>
+    <t>t_recomm_num_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户推荐结果表（同步于gabdp数据库）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_statis_cust_operate_classify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户分类价值模型</t>
+  </si>
+  <si>
+    <t>电话号码和gbcode长码的转换表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单成功的所有订单视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户与mac地址对应视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_customer_real_score_other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效无效固定得分用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他加减分项获得用户得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消费过的频道表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户每天消费订单统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户首次消费门店表（首次消费小区不为空，否则虑过）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户首次消费门店增量tmp表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社员宽表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户宽表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消费过的小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消费过的频道增量tmp表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消费过的小区增量tmp表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消费频道数量视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SELECT tor.customer_id, max(tor.trading_price) trading_price_max, months_between(max(tor.create_time), min(tor.create_time)) month_cus, min(tor.create_time) first_order_time, sum(tor.trading_price) trading_price_sum, sum(tor.total_quantity) item_count, count(1) order_count FROM gemini.t_order tor INNER JOIN gemini.t_eshop te ON (tor.eshop_id = te.id) WHERE tor.sign_time &lt; concat(from_unixtime(unix_timestamp(now()), 'yyyy-MM-dd'), ' 00:00:00') AND NOT te.name LIKE '%测试%' AND te.white != 'QA' AND sign_time IS NOT NULL GROUP BY tor.customer_id</t>
-  </si>
-  <si>
-    <t>v_customer_eshop_count</t>
-  </si>
-  <si>
-    <t>SELECT tor.customer_id, count(DISTINCT tor.eshop_id) eshop_count FROM gemini.t_order tor INNER JOIN gemini.t_eshop te ON (tor.eshop_id = te.id) LEFT OUTER JOIN gemini.t_store ts ON (ts.id = tor.store_id) LEFT OUTER JOIN gemini.t_department_channel tdc ON (te.channel_id = tdc.id) WHERE tor.sign_time &lt; concat(from_unixtime(unix_timestamp(now()), 'yyyy-MM-dd'), ' 00:00:00') AND NOT te.name LIKE '%测试%' AND te.white != 'QA' AND sign_time IS NOT NULL GROUP BY tor.customer_id</t>
-  </si>
-  <si>
-    <t>v_customer_channel_count</t>
-  </si>
-  <si>
-    <t>SELECT tor.customer_id, count(DISTINCT tdc.id) channel_count FROM gemini.t_order tor INNER JOIN gemini.t_eshop te ON (tor.eshop_id = te.id) LEFT OUTER JOIN gemini.t_store ts ON (ts.id = tor.store_id) LEFT OUTER JOIN gemini.t_department_channel tdc ON (te.channel_id = tdc.id) WHERE tor.sign_time &lt; concat(from_unixtime(unix_timestamp(now()), 'yyyy-MM-dd'), ' 00:00:00') AND NOT te.name LIKE '%测试%' AND te.white != 'QA' AND sign_time IS NOT NULL GROUP BY tor.customer_id</t>
-  </si>
-  <si>
-    <t>v_yanglc_user</t>
-  </si>
-  <si>
-    <t>SELECT ylu.id userid, ylu.name username, ylu.tel userphone, ylu.IDcard usercard, ylu.create_time createtime, ylu.store_id storeid, ylc.city_code citycode, ylc.name storename, ylc.province_code provincecode FROM gabase.c_customer ylu, gabase.c_store ylc WHERE ylu.IDcard NOT IN (SELECT IDcard FROM gabase.c_customer WHERE substring(IDcard, 7, 2) &gt; '18' AND substring(IDcard, 7, 2) &lt; '21' GROUP BY IDcard HAVING count(IDcard) &gt; 1) AND ylu.tel NOT IN (SELECT tel FROM gabase.c_customer WHERE substring(IDcard, 7, 2) &gt; '18' AND substring(IDcard, 7, 2) &lt; '21' GROUP BY tel HAVING count(tel) &gt; 1) AND substring(ylu.IDcard, 7, 2) &gt; '18' AND substring(ylu.IDcard, 7, 2) &lt; '21' AND length(ylu.tel) &lt; 30 AND ylu.store_id = ylc.id</t>
-  </si>
-  <si>
-    <t>v_customer_city_count</t>
-  </si>
-  <si>
-    <t>SELECT tor.customer_id, count(DISTINCT ts.city_code) city_count FROM gemini.t_order tor INNER JOIN gemini.t_eshop te ON (tor.eshop_id = te.id) LEFT OUTER JOIN gemini.t_store ts ON (ts.id = tor.store_id) LEFT OUTER JOIN gemini.t_department_channel tdc ON (te.channel_id = tdc.id) WHERE tor.sign_time &lt; concat(from_unixtime(unix_timestamp(now()), 'yyyy-MM-dd'), ' 00:00:00') AND NOT te.name LIKE '%测试%' AND te.white != 'QA' AND sign_time IS NOT NULL GROUP BY tor.customer_id</t>
-  </si>
-  <si>
-    <t>v_customer_mac</t>
-  </si>
-  <si>
-    <t>SELECT customer_id, mac_address FROM gabdp_log.t_log WHERE mac_address IS NOT NULL AND mac_address != 'null' AND char_length(mac_address) = 17 AND customer_id IS NOT NULL AND customer_id != 'null' GROUP BY customer_id, mac_address</t>
-  </si>
-  <si>
-    <t>v_member_consumption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消费sum信息视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消费e店数量视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消费城市数量视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消费门店数量视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有订单视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SELECT customer_id, sum(CASE WHEN order_tag1 LIKE '%M%' THEN trading_price ELSE 0 END) member_GMV, sum(CASE WHEN order_tag1 LIKE '%M%' THEN 1 ELSE 0 END) member_order_count, sum(CASE WHEN order_tag1 LIKE '%M%' THEN ifnull(apportion_rebate, 0) ELSE 0 END) apportion_rebate, sum(CASE WHEN order_tag1 LIKE '%M%' THEN ifnull(returned_amount, 0) ELSE 0 END) returned_amount, sum(CASE WHEN order_tag4 = 'A2' THEN 1 ELSE 0 END) birthday_coupon_use_count, sum(CASE WHEN order_tag4 = 'A1' THEN 1 ELSE 0 END) coupons_25_use_count, sum(CASE WHEN order_tag4 = 'A3' THEN 1 ELSE 0 END) is_get_cardgift FROM daqweb.df_mass_order_total WHERE create_time &lt; concat(from_unixtime(unix_timestamp(now()), 'yyyy-MM-dd'), ' 00:00:00') GROUP BY customer_id</t>
-  </si>
-  <si>
-    <t>所属用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视图语句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_user_basic_consume_info_partition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础数据表，从gabdp导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户最常消费的城市（下单成功）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社员表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_customer_associator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户与身份证idcard对应关系表（来源：社员表，员工线上/线下表，养老餐）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户标签结果表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步于养老餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信用评分（同步于gabdp数据库）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流失用户（同步于gabdp数据库）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四级标签分类（同步于gabdp数据库）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_createdate_col</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均搜索间隔(天)</t>
-  </si>
-  <si>
-    <t>s_cum_sea_channel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各频道搜索次数</t>
-  </si>
-  <si>
-    <t>s_cum_sea_fw_col</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务类_搜索次数</t>
-  </si>
-  <si>
-    <t>s_cum_sea_sp_col</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品类_搜索次数</t>
-  </si>
-  <si>
-    <t>s_freq_search_channel_col</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最常搜索的频道</t>
-  </si>
-  <si>
-    <t>s_freq_search_hour_col</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最常搜索时段</t>
-  </si>
-  <si>
-    <t>s_freq_search_wday_col</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最常在星期几搜索</t>
-  </si>
-  <si>
-    <t>s_freq_search_word_col</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最常搜索的关键词</t>
-  </si>
-  <si>
-    <t>s_search_times_col</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索次数</t>
-  </si>
-  <si>
-    <t>s_user_360ds_order_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实用户评分_近360天的消费</t>
-  </si>
-  <si>
-    <t>s_user_90ds_order_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近90天下单次数、平均下单间隔、(订单/平均订单/最高单笔订单)金额、下单(频道/E店/门店/sku)数量</t>
-  </si>
-  <si>
-    <t>s_user_basic_consume_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签结果数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签结果数据分区表！！！作废，被b_user_tag替代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_user_basic_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户基础信息</t>
-  </si>
-  <si>
-    <t>s_user_coupon_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(累计/月均)优惠券使用次数</t>
-  </si>
-  <si>
-    <t>s_user_each_channel_90ds_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各频道最近90天订单(数量/金额)</t>
-  </si>
-  <si>
-    <t>s_user_each_channel_sum_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各频道(累计/月均)订单(数量/金额)</t>
-  </si>
-  <si>
-    <t>s_user_first_last_order_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首末单距今时长、(累计/月均)[下单次数/下单金额/下单(频道/E店/门店/sku)数量]、累计(平均下单间隔/平均订单金额/最高单笔订单金额)</t>
-  </si>
-  <si>
-    <t>s_user_goods_90ds_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品类最近90天订单(数量/金额)</t>
-  </si>
-  <si>
-    <t>s_user_goods_sum_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品类(累计/月均)订单(数量/金额)</t>
-  </si>
-  <si>
-    <t>s_user_groupon_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(累计/月均)团购次数</t>
-  </si>
-  <si>
-    <t>s_user_serve_90ds_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务类最近90天订单(数量/金额)</t>
-  </si>
-  <si>
-    <t>s_user_serve_sum_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务类(累计/月均)订单(数量/金额)</t>
-  </si>
-  <si>
-    <t>t_customer_tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户模型标签表（周数据）</t>
-  </si>
-  <si>
-    <t>t_recomm_num_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户推荐结果表（同步于gabdp数据库）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_statis_cust_operate_classify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户分类价值模型</t>
-  </si>
-  <si>
-    <t>电话号码和gbcode长码的转换表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单成功的所有订单视图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户与mac地址对应视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社员消费信息视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费订单视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老餐视图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,7 +651,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -651,7 +725,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -686,7 +759,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -862,14 +934,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
@@ -878,24 +950,24 @@
     <col min="5" max="5" width="56.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -906,21 +978,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="16.5" customHeight="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -931,24 +1003,24 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.5" customHeight="1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -958,266 +1030,308 @@
       <c r="C6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="16.5" customHeight="1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="16.5" customHeight="1">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="16.5" customHeight="1">
       <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="33.75" customHeight="1">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" customHeight="1">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" customHeight="1">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" customHeight="1">
+      <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
+    <row r="29" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
+    <row r="30" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -1226,7 +1340,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="16.5" customHeight="1">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +1354,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="16.5" customHeight="1">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1368,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="16.5" customHeight="1">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1382,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="16.5" customHeight="1">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +1396,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="16.5" customHeight="1">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1410,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="16.5" customHeight="1">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1424,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="16.5" customHeight="1">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1438,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="39.75" customHeight="1">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1452,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="16.5" customHeight="1">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1352,63 +1466,63 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="33" customHeight="1">
       <c r="A40" t="s">
         <v>0</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1" t="s">
+    </row>
+    <row r="43" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="16.5" customHeight="1">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1536,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="55.5" customHeight="1">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +1550,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="23.25" customHeight="1">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +1564,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="16.5" customHeight="1">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1578,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="16.5" customHeight="1">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1592,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="16.5" customHeight="1">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1606,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="16.5" customHeight="1">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1506,354 +1620,339 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
+    <row r="51" spans="1:5" ht="16.5" customHeight="1">
       <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
         <v>125</v>
       </c>
-      <c r="C51" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="53" spans="1:5" ht="30" customHeight="1">
+      <c r="B53" t="s">
         <v>127</v>
       </c>
-      <c r="C52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="54" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
         <v>129</v>
       </c>
-      <c r="C53" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
+    <row r="55" spans="1:5" ht="16.5" customHeight="1">
       <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
+      <c r="E62" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
+      <c r="E65" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" t="s">
         <v>32</v>
       </c>
-      <c r="C58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" t="s">
-        <v>36</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" t="s">
-        <v>36</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" t="s">
-        <v>36</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" t="s">
-        <v>42</v>
-      </c>
-      <c r="C66" t="s">
-        <v>36</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" ht="16.5" customHeight="1">
       <c r="A67" t="s">
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16.5" customHeight="1">
       <c r="A68" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16.5" customHeight="1">
       <c r="A69" t="s">
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16.5" customHeight="1">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16.5" customHeight="1">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" customHeight="1">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" t="s">
-        <v>36</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" t="s">
-        <v>35</v>
-      </c>
-      <c r="C74" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" t="s">
-        <v>36</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1867,12 +1966,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1880,12 +1979,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1893,12 +1992,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
